--- a/reports/r5/opf�lgning.xlsx
+++ b/reports/r5/opf�lgning.xlsx
@@ -11,15 +11,16 @@
     <sheet name="Tidsregnskab" sheetId="2" r:id="rId2"/>
     <sheet name="kvalitet" sheetId="6" r:id="rId3"/>
     <sheet name="Ressourcer" sheetId="3" r:id="rId4"/>
-    <sheet name="status" sheetId="4" r:id="rId5"/>
-    <sheet name="status 30-3" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="status" sheetId="4" r:id="rId6"/>
+    <sheet name="status 30-3" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
   <si>
     <t>Forbrugt kal. til dato</t>
   </si>
@@ -313,6 +314,9 @@
   </si>
   <si>
     <t>Taber ikke kager</t>
+  </si>
+  <si>
+    <t>SGR3</t>
   </si>
 </sst>
 </file>
@@ -829,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -864,7 +868,7 @@
         <v>40658</v>
       </c>
       <c r="H1" s="7">
-        <v>40667</v>
+        <v>40682</v>
       </c>
       <c r="I1" s="7">
         <v>40693</v>
@@ -1014,7 +1018,7 @@
       </c>
       <c r="H6" s="18">
         <f t="shared" ref="H6:M6" si="0">$M1-H1</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="0"/>
@@ -1065,7 +1069,7 @@
       </c>
       <c r="H7" s="19">
         <f t="shared" ref="H7:M7" si="1">$B6-H6</f>
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" si="1"/>
@@ -1141,7 +1145,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="18">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I10" s="17">
         <v>60</v>
@@ -1181,8 +1185,12 @@
       <c r="G11" s="18">
         <v>55</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="H11" s="18">
+        <v>62</v>
+      </c>
+      <c r="I11" s="18">
+        <v>62</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="20"/>
@@ -1268,8 +1276,12 @@
       <c r="G14" s="18">
         <v>48</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="H14" s="18">
+        <v>56</v>
+      </c>
+      <c r="I14" s="18">
+        <v>56</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="20"/>
@@ -1356,7 +1368,7 @@
         <v>596.70000000000005</v>
       </c>
       <c r="E17" s="18">
-        <f t="shared" ref="E17:G17" si="6">$B$17*(100-E11)/100</f>
+        <f t="shared" ref="E17:I17" si="6">$B$17*(100-E11)/100</f>
         <v>520.20000000000005</v>
       </c>
       <c r="F17" s="18">
@@ -1367,8 +1379,14 @@
         <f t="shared" si="6"/>
         <v>344.25</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="18">
+        <f t="shared" si="6"/>
+        <v>290.7</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="6"/>
+        <v>290.7</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="20"/>
@@ -1396,8 +1414,12 @@
       <c r="G18" s="18">
         <v>295</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="H18" s="18">
+        <v>354</v>
+      </c>
+      <c r="I18" s="18">
+        <v>356</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="20"/>
@@ -1442,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1810,6 +1832,52 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
+      <c r="B16" s="28">
+        <v>4</v>
+      </c>
+      <c r="D16" s="28">
+        <v>4</v>
+      </c>
+      <c r="F16" s="28">
+        <v>3</v>
+      </c>
+      <c r="H16" s="28">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="30">
+        <v>40682</v>
+      </c>
+      <c r="B17" s="28">
+        <v>9</v>
+      </c>
+      <c r="D17" s="28">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" s="28">
+        <v>9</v>
+      </c>
+      <c r="J17" s="28">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1827,637 +1895,313 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="31">
-        <f>B2*D2+B26*D26</f>
-        <v>0.5573611111111112</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="31">
-        <f>C3*E3+C16*E16+C22*E22</f>
-        <v>0.91472222222222244</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="1" spans="1:5">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32">
+        <f>D4*$C$4+D9*$C$9</f>
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="E2" s="32">
+        <f>E4*$C$4+E9*$C$9</f>
+        <v>0.55729166666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="34"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="32">
+        <f>D10*$C$10+D28*$C$28</f>
+        <v>0.33611111111111114</v>
+      </c>
+      <c r="E9" s="32">
+        <f>E10*$C$10+E28*$C$28</f>
+        <v>0.40972222222222221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="32">
+      <c r="C10" s="32">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32">
-        <f>D4*F4+D6*F6+D9*F9+D13*F13</f>
-        <v>0.91250000000000009</v>
-      </c>
-      <c r="D3" s="32" t="s">
+      <c r="D10" s="32">
+        <f>D11*$C$11+D15*$C$15+D23*$C$23</f>
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="E10" s="32">
+        <f>E11*$C$11+E15*$C$15+E23*$C$23</f>
+        <v>0.64444444444444449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E3">
-        <f>(100/3)%</f>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="D4" s="32">
-        <f>E5*G5</f>
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="E5" s="32">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="D6" s="32">
-        <f>E7*G7+E8*G8</f>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="E7" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="E8" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="D9" s="32">
-        <f>E10*G10+E11*G11+E12*G12</f>
-        <v>0.85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="E10" s="32">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="E11" s="32">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="D13" s="32">
-        <f>E14*G14+E15*G15</f>
-        <v>0.95</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" s="32">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="32">
-        <f>D17*F17+D18*F18+D21*F21</f>
-        <v>0.96500000000000008</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16">
-        <f>(100/3)%</f>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="D17" s="32">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="32">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="D18" s="32">
-        <f>E19*G19+E20*G20</f>
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="32">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="E19" s="32">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="E20" s="32">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="D21" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="32">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22">
-        <f>D23*F23+D24*F24+D25*F25</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22">
-        <f>(100/3)%</f>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="D23" s="32">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23">
-        <f>(100/3)%</f>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="D24" s="32">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24">
-        <f>(100/3)%</f>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="D25" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25">
-        <f>(100/3)%</f>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="32">
-        <f>C27*E27</f>
-        <v>0.2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="C27" s="32">
-        <f>D28*F28</f>
-        <v>0.2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="D28" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="32">
-        <f>D34*$C$34+D39*$C$39</f>
-        <v>0.41874999999999996</v>
-      </c>
-      <c r="E32" s="32">
-        <f>E34*$C$34+E39*$C$39</f>
-        <v>0.48229166666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="34"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="D34" s="32">
-        <v>1</v>
-      </c>
-      <c r="E34" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="D39" s="32">
-        <f>D40*$C$40+D58*$C$58</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="E39" s="32">
-        <f>E40*$C$40+E58*$C$58</f>
-        <v>0.30972222222222223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="32">
-        <f>D41*$C$41+D45*$C$45+D53*$C$53</f>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="E40" s="32">
-        <f>E41*$C$41+E45*$C$45+E53*$C$53</f>
-        <v>0.56944444444444442</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="32">
+      <c r="C11" s="32">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D41" s="32">
-        <f>AVERAGE(D42:D43)</f>
+      <c r="D11" s="32">
+        <f>AVERAGE(D12:D13)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E11" s="32">
+        <f>AVERAGE(E12:E13)</f>
         <v>0.5</v>
       </c>
-      <c r="E41" s="32">
-        <f>AVERAGE(E42:E43)</f>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="32">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="32">
+      <c r="E12" s="32">
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="B43" t="s">
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="32">
+      <c r="D13" s="32">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="34" t="s">
+      <c r="E13" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C15" s="32">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D45" s="32">
-        <f>AVERAGE(D46:D51)</f>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="E45" s="32">
-        <f>AVERAGE(E46:E51)</f>
-        <v>0.5083333333333333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="B46" t="s">
+      <c r="D15" s="32">
+        <f>AVERAGE(D16:D21)</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="E15" s="32">
+        <f>AVERAGE(E16:E21)</f>
+        <v>0.68333333333333346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D16" s="32">
         <v>0.6</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E16" s="32">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="32">
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="32">
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="32">
         <v>0.5</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E18" s="32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="32">
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="E48" s="32">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="B49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="E49" s="32">
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="32">
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="32">
-        <v>0</v>
-      </c>
-      <c r="E50" s="32">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="B51" t="s">
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="32">
-        <v>0</v>
-      </c>
-      <c r="E51" s="32">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="34" t="s">
+      <c r="D21" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C23" s="32">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D53" s="32">
-        <f>AVERAGE(D54:D56)</f>
+      <c r="D23" s="32">
+        <f>AVERAGE(D24:D26)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E23" s="32">
+        <f>AVERAGE(E24:E26)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="32">
         <v>0.5</v>
       </c>
-      <c r="E53" s="32">
-        <f>AVERAGE(E54:E56)</f>
-        <v>0.70000000000000007</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="32">
+      <c r="E24" s="32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="32">
         <v>0.5</v>
       </c>
-      <c r="E54" s="32">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="32">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="E56" s="32">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D58" s="32">
-        <f>AVERAGE(D59:D60)</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="32">
-        <f>AVERAGE(E59:E60)</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" t="s">
+      <c r="D28" s="32">
+        <f>AVERAGE(D29:D30)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="32">
+        <f>AVERAGE(E29:E30)</f>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="32">
-        <v>0</v>
-      </c>
-      <c r="E59" s="32">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="B60" t="s">
+      <c r="D29" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="32">
-        <v>0</v>
-      </c>
-      <c r="E60" s="32">
-        <v>0</v>
+      <c r="D30" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2694,6 +2438,345 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="31">
+        <f>B2*D2+B26*D26</f>
+        <v>0.62798611111111113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="31">
+        <f>C3*E3+C16*E16+C22*E22</f>
+        <v>0.9059722222222224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32">
+        <f>D4*F4+D6*F6+D9*F9+D13*F13</f>
+        <v>0.93125000000000002</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <f>(100/3)%</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="D4" s="32">
+        <f>E5*G5</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="D6" s="32">
+        <f>E7*G7+E8*G8</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="E7" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="E8" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="D9" s="32">
+        <f>E10*G10+E11*G11+E12*G12</f>
+        <v>0.9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" s="32">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="32">
+        <f>E14*G14+E15*G15</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="32">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="32">
+        <v>0.95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="32">
+        <f>D17*F17+D18*F18+D21*F21</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <f>(100/3)%</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="D17" s="32">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="D18" s="32">
+        <f>E19*G19+E20*G20</f>
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="E19" s="32">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="E20" s="32">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="D21" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="C22">
+        <f>D23*F23+D24*F24+D25*F25</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <f>(100/3)%</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="D23" s="32">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <f>(100/3)%</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24">
+        <f>(100/3)%</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="D25" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25">
+        <f>(100/3)%</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="32">
+        <f>C27*E27</f>
+        <v>0.35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="C27" s="32">
+        <f>D28*F28</f>
+        <v>0.35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="D28" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -3028,7 +3111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
